--- a/Planificateur de budget Projet.xlsx
+++ b/Planificateur de budget Projet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8636B4E-91F1-47BA-8BF0-53DA0B56DA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8756AE7A-BD7A-4BDC-B511-E7E25FEFEFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificateur de budget" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>BUDGET PAR CATÉGORIE</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Pédestales</t>
   </si>
   <si>
-    <t>Personne qui va dépenser</t>
-  </si>
-  <si>
     <t>Budget Instrumentum</t>
   </si>
   <si>
@@ -96,6 +93,12 @@
   </si>
   <si>
     <t>PLA Glow in the dark</t>
+  </si>
+  <si>
+    <t>Liens</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/dp/B0BBDYSQ14/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B0BBDYSQ14&amp;pd_rd_w=UDLm7&amp;content-id=amzn1.sym.516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_p=516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_r=353WR54VF0VPZWZRZZ0N&amp;pd_rd_wg=yV00x&amp;pd_rd_r=a9b2b8bc-abaa-4031-8e5e-0d3206bfeb2d&amp;s=office&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw</t>
   </si>
 </sst>
 </file>
@@ -112,7 +115,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="170" formatCode="#,##0\ &quot;$&quot;"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +352,14 @@
       <color theme="3" tint="-0.749992370372631"/>
       <name val="Arial Nova"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -764,7 +775,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -812,6 +823,7 @@
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -950,11 +962,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="47"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="48">
     <cellStyle name="20 % - Accent1" xfId="24" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="32" builtinId="38" customBuiltin="1"/>
@@ -984,6 +994,7 @@
     <cellStyle name="Cellule liée" xfId="17" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Entrée" xfId="14" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Insatisfaisant" xfId="12" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8"/>
     <cellStyle name="Milliers" xfId="1" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Milliers [0]" xfId="2" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Monétaire" xfId="3" builtinId="4" customBuiltin="1"/>
@@ -1032,6 +1043,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Arial Nova"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1058,6 +1084,21 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Arial Nova"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1080,6 +1121,21 @@
           <bgColor theme="3" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Arial Nova"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1114,51 +1170,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Arial Nova"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Arial Nova"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Arial Nova"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3083,7 +3094,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Montant" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14" dataCellStyle="Normal">
       <calculatedColumnFormula>IFERROR(Tableau2[[#This Row],[Quantité]]*Tableau2[[#This Row],[Coût unitaire]],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{04D919F3-8266-4127-B5F3-3CBEA20FF0E7}" name="Personne qui va dépenser" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal"/>
+    <tableColumn id="6" xr3:uid="{04D919F3-8266-4127-B5F3-3CBEA20FF0E7}" name="Liens" dataDxfId="13" totalsRowDxfId="12" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Style de tableau 4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3092,10 +3103,10 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="B4:E12" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9" totalsRowBorderDxfId="8">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Catégories" totalsRowLabel="Budget total" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Budget planifié" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Budget détaillé" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Disponible / (Plus)" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Catégories" totalsRowLabel="Budget total" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Budget planifié" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Budget détaillé" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Disponible / (Plus)" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Budget planifié]]-Tableau1[[#This Row],[Budget détaillé]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3313,7 +3324,7 @@
   <dimension ref="B1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3330,7 +3341,7 @@
   <sheetData>
     <row r="1" spans="2:17" s="1" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
@@ -3523,7 +3534,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3545,7 +3556,7 @@
     </row>
     <row r="17" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>13</v>
@@ -3560,11 +3571,11 @@
         <f>IFERROR(Tableau2[[#This Row],[Quantité]]*Tableau2[[#This Row],[Coût unitaire]],"")</f>
         <v>110</v>
       </c>
-      <c r="G17" s="46"/>
+      <c r="G17" s="44"/>
     </row>
-    <row r="18" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>14</v>
@@ -3579,11 +3590,13 @@
         <f>IFERROR(Tableau2[[#This Row],[Quantité]]*Tableau2[[#This Row],[Coût unitaire]],"")</f>
         <v>68</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>13</v>
@@ -3598,7 +3611,7 @@
         <f>IFERROR(Tableau2[[#This Row],[Quantité]]*Tableau2[[#This Row],[Coût unitaire]],"")</f>
         <v>72</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
@@ -3637,15 +3650,18 @@
       <formula1>$B$5:$B$10</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1" tooltip="https://www.amazon.ca/dp/B0BBDYSQ14/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B0BBDYSQ14&amp;pd_rd_w=UDLm7&amp;content-id=amzn1.sym.516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_p=516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_r=353WR54VF0VPZWZRZZ0N&amp;pd_rd_wg=yV00x&amp;pd_rd_r=a9b2b8bc-abaa-4031-8e5e-0d3206bfeb2d&amp;s=office&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw" display="https://www.amazon.ca/dp/B0BBDYSQ14/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B0BBDYSQ14&amp;pd_rd_w=UDLm7&amp;content-id=amzn1.sym.516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_p=516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_r=353WR54VF0VPZWZRZZ0N&amp;pd_rd_wg=yV00x&amp;pd_rd_r=a9b2b8bc-abaa-4031-8e5e-0d3206bfeb2d&amp;s=office&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw" xr:uid="{CF33BDF5-2DDF-4B7C-BB89-67246CD0CA29}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"+,Regular"&amp;24&amp;K04-049Vacation Budget Planner</oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="2">
-    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3663,6 +3679,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70" xsi:nil="true"/>
+    <_activity xmlns="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D36DC9295A43C144A47697F8D3FAA5AB" ma:contentTypeVersion="18" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a46b3260b7f9781e899744d450f65f4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9380b54f-bfbf-4b36-b390-8596c83a22d7" xmlns:ns4="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cbccb8220b77c50a275020d8e35e0f4" ns3:_="" ns4:_="">
     <xsd:import namespace="9380b54f-bfbf-4b36-b390-8596c83a22d7"/>
@@ -3915,39 +3949,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70" xsi:nil="true"/>
-    <_activity xmlns="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CBF04-3668-45ED-9E30-FF0B098E3B31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92017F1-FD6A-401F-A108-89205144B4CB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9380b54f-bfbf-4b36-b390-8596c83a22d7"/>
-    <ds:schemaRef ds:uri="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3970,9 +3975,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92017F1-FD6A-401F-A108-89205144B4CB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CBF04-3668-45ED-9E30-FF0B098E3B31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9380b54f-bfbf-4b36-b390-8596c83a22d7"/>
+    <ds:schemaRef ds:uri="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Planificateur de budget Projet.xlsx
+++ b/Planificateur de budget Projet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8756AE7A-BD7A-4BDC-B511-E7E25FEFEFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADCFCF48-DEDC-47BF-A14B-ABC82817BB3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Planificateur de budget'!$B$3:$J$46</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>BUDGET PAR CATÉGORIE</t>
   </si>
@@ -89,16 +90,49 @@
     <t>Équerres d'angles</t>
   </si>
   <si>
-    <t>Extrusions 800mm</t>
-  </si>
-  <si>
-    <t>PLA Glow in the dark</t>
-  </si>
-  <si>
     <t>Liens</t>
   </si>
   <si>
     <t>https://www.amazon.ca/dp/B0BBDYSQ14/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B0BBDYSQ14&amp;pd_rd_w=UDLm7&amp;content-id=amzn1.sym.516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_p=516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_r=353WR54VF0VPZWZRZZ0N&amp;pd_rd_wg=yV00x&amp;pd_rd_r=a9b2b8bc-abaa-4031-8e5e-0d3206bfeb2d&amp;s=office&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/gp/product/B09WHCKS3P/?th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/-/fr/gp/product/B09Y1PL5GH/ref=ox_sc_act_title_1?smid=A2DGLVBBDAJTOF&amp;th=1</t>
+  </si>
+  <si>
+    <t>Extrusions 1000mm</t>
+  </si>
+  <si>
+    <r>
+      <t>ERYONE PLA Glow i</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <rFont val="Arial Nova"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the dark</t>
+    </r>
+  </si>
+  <si>
+    <t>TRONXY PLA Glow in the dark</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/-/fr/Filament-matériau-imprimante-changement-arc-en-ciel/dp/B0BPC7QRYW/ref=pd_sbs_d_sccl_4_3/141-0444918-1252260?pd_rd_w=5DyCj&amp;content-id=amzn1.sym.548e628b-1a29-4955-b8b2-cd4ff764ebc9&amp;pf_rd_p=548e628b-1a29-4955-b8b2-cd4ff764ebc9&amp;pf_rd_r=Y3DAQ99H4779YZVVCDCA&amp;pd_rd_wg=zv7Fz&amp;pd_rd_r=9db453d8-71a3-4b77-81d3-b1b273256104&amp;pd_rd_i=B0BPC7QRYW&amp;th=1</t>
   </si>
 </sst>
 </file>
@@ -115,7 +149,7 @@
     <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="170" formatCode="#,##0\ &quot;$&quot;"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +394,13 @@
       <name val="Arial Nova"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="39">
@@ -825,7 +866,7 @@
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -962,7 +1003,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="47"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="47" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="33" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20 % - Accent1" xfId="24" builtinId="30" customBuiltin="1"/>
@@ -1043,7 +1092,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1051,9 +1104,16 @@
         <sz val="14"/>
         <color theme="1" tint="0.34998626667073579"/>
         <name val="Arial Nova"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1080,62 +1140,6 @@
           <bgColor theme="3" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Arial Nova"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Arial Nova"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Arial Nova"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1170,6 +1174,51 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Arial Nova"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Arial Nova"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Arial Nova"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="10" formatCode="#,##0\ &quot;$&quot;_);[Red]\(#,##0\ &quot;$&quot;\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2023,10 +2072,10 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2153,7 +2202,7 @@
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2280,7 +2329,7 @@
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3103,10 +3152,10 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau1" displayName="Tableau1" ref="B4:E12" totalsRowCount="1" headerRowDxfId="11" dataDxfId="10" totalsRowDxfId="9" totalsRowBorderDxfId="8">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Catégories" totalsRowLabel="Budget total" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Budget planifié" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Budget détaillé" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Disponible / (Plus)" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Catégories" totalsRowLabel="Budget total" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Budget planifié" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Budget détaillé" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Disponible / (Plus)" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="0">
       <calculatedColumnFormula>IFERROR(Tableau1[[#This Row],[Budget planifié]]-Tableau1[[#This Row],[Budget détaillé]],"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3324,22 +3373,22 @@
   <dimension ref="B1:Q21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.875" defaultRowHeight="22.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" style="4" customWidth="1"/>
-    <col min="3" max="6" width="25.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="4"/>
-    <col min="11" max="11" width="8.85546875" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="1.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.875" style="4" customWidth="1"/>
+    <col min="3" max="6" width="25.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="1.75" style="4" customWidth="1"/>
+    <col min="9" max="10" width="8.875" style="4"/>
+    <col min="11" max="11" width="8.875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="1" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" s="1" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>16</v>
       </c>
@@ -3349,7 +3398,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="2:17" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="32"/>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -3357,7 +3406,7 @@
       <c r="F2" s="33"/>
       <c r="G2" s="34"/>
     </row>
-    <row r="3" spans="2:17" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
@@ -3367,7 +3416,7 @@
       <c r="F3" s="40"/>
       <c r="G3" s="38"/>
     </row>
-    <row r="4" spans="2:17" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -3383,7 +3432,7 @@
       <c r="F4" s="41"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
@@ -3391,16 +3440,16 @@
         <v>400</v>
       </c>
       <c r="D5" s="15">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="E5" s="15">
         <f>IFERROR(Tableau1[[#This Row],[Budget planifié]]-Tableau1[[#This Row],[Budget détaillé]],"")</f>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
@@ -3415,7 +3464,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -3426,7 +3475,7 @@
       <c r="F7" s="37"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -3437,7 +3486,7 @@
       <c r="F8" s="37"/>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="14"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15">
@@ -3451,7 +3500,7 @@
       <c r="F9" s="37"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17">
@@ -3466,7 +3515,7 @@
       <c r="G10" s="31"/>
       <c r="Q10" s="45"/>
     </row>
-    <row r="11" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15">
@@ -3480,7 +3529,7 @@
       <c r="F11" s="37"/>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
         <v>2</v>
       </c>
@@ -3490,16 +3539,16 @@
       </c>
       <c r="D12" s="19">
         <f>SUBTOTAL(109,Tableau1[Budget détaillé])</f>
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="E12" s="19">
         <f>SUBTOTAL(109,Tableau1[Disponible / (Plus)])</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="35"/>
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
@@ -3507,7 +3556,7 @@
       <c r="F13" s="37"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="2:17" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
@@ -3517,7 +3566,7 @@
       <c r="F14" s="21"/>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="2:17" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="22" t="s">
         <v>4</v>
       </c>
@@ -3534,10 +3583,10 @@
         <v>12</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
@@ -3554,77 +3603,91 @@
       </c>
       <c r="G16" s="44"/>
     </row>
-    <row r="17" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17" s="24">
         <v>11</v>
       </c>
       <c r="F17" s="24">
         <f>IFERROR(Tableau2[[#This Row],[Quantité]]*Tableau2[[#This Row],[Coût unitaire]],"")</f>
-        <v>110</v>
-      </c>
-      <c r="G17" s="44"/>
+        <v>220</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="18" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="27">
-        <v>2</v>
-      </c>
-      <c r="E18" s="26">
-        <v>34</v>
+    <row r="18" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="25">
+        <v>3</v>
+      </c>
+      <c r="E18" s="24">
+        <v>24</v>
       </c>
       <c r="F18" s="24">
         <f>IFERROR(Tableau2[[#This Row],[Quantité]]*Tableau2[[#This Row],[Coût unitaire]],"")</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="25">
-        <v>3</v>
-      </c>
-      <c r="E19" s="24">
-        <v>24</v>
+    <row r="19" spans="2:7" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="27">
+        <v>2</v>
+      </c>
+      <c r="E19" s="26">
+        <v>34</v>
       </c>
       <c r="F19" s="24">
         <f>IFERROR(Tableau2[[#This Row],[Quantité]]*Tableau2[[#This Row],[Coût unitaire]],"")</f>
-        <v>72</v>
-      </c>
-      <c r="G19" s="44"/>
+        <v>68</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="20" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="26"/>
+    <row r="20" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="27">
+        <v>1</v>
+      </c>
+      <c r="E20" s="26">
+        <v>31</v>
+      </c>
       <c r="F20" s="26">
         <f>IFERROR(Tableau2[[#This Row],[Quantité]]*Tableau2[[#This Row],[Coût unitaire]],"")</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="44"/>
+        <v>31</v>
+      </c>
+      <c r="G20" s="48" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="21" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="28" t="s">
         <v>5</v>
       </c>
@@ -3646,22 +3709,25 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez votre budget prévu pour chaque catégorie de dépenses. _x000a__x000a_Entrez les données dans la colonne Budget prévu." sqref="B3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez les catégories de dépenses dans cette colonne." sqref="B4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Elle calcule la différence entre votre budget planifié et vos dépenses par catégorie." sqref="E4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21 C16:C20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$B$5:$B$10</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G18" r:id="rId1" tooltip="https://www.amazon.ca/dp/B0BBDYSQ14/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B0BBDYSQ14&amp;pd_rd_w=UDLm7&amp;content-id=amzn1.sym.516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_p=516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_r=353WR54VF0VPZWZRZZ0N&amp;pd_rd_wg=yV00x&amp;pd_rd_r=a9b2b8bc-abaa-4031-8e5e-0d3206bfeb2d&amp;s=office&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw" display="https://www.amazon.ca/dp/B0BBDYSQ14/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B0BBDYSQ14&amp;pd_rd_w=UDLm7&amp;content-id=amzn1.sym.516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_p=516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_r=353WR54VF0VPZWZRZZ0N&amp;pd_rd_wg=yV00x&amp;pd_rd_r=a9b2b8bc-abaa-4031-8e5e-0d3206bfeb2d&amp;s=office&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw" xr:uid="{CF33BDF5-2DDF-4B7C-BB89-67246CD0CA29}"/>
+    <hyperlink ref="G19" r:id="rId1" tooltip="https://www.amazon.ca/dp/B0BBDYSQ14/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B0BBDYSQ14&amp;pd_rd_w=UDLm7&amp;content-id=amzn1.sym.516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_p=516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_r=353WR54VF0VPZWZRZZ0N&amp;pd_rd_wg=yV00x&amp;pd_rd_r=a9b2" display="https://www.amazon.ca/dp/B0BBDYSQ14/ref=sspa_dk_detail_0?psc=1&amp;pd_rd_i=B0BBDYSQ14&amp;pd_rd_w=UDLm7&amp;content-id=amzn1.sym.516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_p=516c2169-755e-413a-a38a-68230f4ab66f&amp;pf_rd_r=353WR54VF0VPZWZRZZ0N&amp;pd_rd_wg=yV00x&amp;pd_rd_r=a9b2b8bc-abaa-4031-8e5e-0d3206bfeb2d&amp;s=office&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9kZXRhaWw" xr:uid="{CF33BDF5-2DDF-4B7C-BB89-67246CD0CA29}"/>
+    <hyperlink ref="G18" r:id="rId2" tooltip="https://www.amazon.ca/gp/product/b09whcks3p/?th=1" xr:uid="{AB4A520F-7DA2-4E19-B04F-FDEA725AA3C5}"/>
+    <hyperlink ref="G17" r:id="rId3" xr:uid="{04C75CF1-FC6E-43B6-8511-0EFE44644B5B}"/>
+    <hyperlink ref="G20" r:id="rId4" display="https://www.amazon.ca/-/fr/Filament-matériau-imprimante-changement-arc-en-ciel/dp/B0BPC7QRYW/ref=pd_sbs_d_sccl_4_3/141-0444918-1252260?pd_rd_w=5DyCj&amp;content-id=amzn1.sym.548e628b-1a29-4955-b8b2-cd4ff764ebc9&amp;pf_rd_p=548e628b-1a29-4955-b8b2-cd4ff764ebc9&amp;pf_rd_r=Y3DAQ99H4779YZVVCDCA&amp;pd_rd_wg=zv7Fz&amp;pd_rd_r=9db453d8-71a3-4b77-81d3-b1b273256104&amp;pd_rd_i=B0BPC7QRYW&amp;th=1" xr:uid="{5C1EB7D5-A154-4184-85DC-95581452267C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="4294967293" r:id="rId5"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"+,Regular"&amp;24&amp;K04-049Vacation Budget Planner</oddHeader>
   </headerFooter>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId6"/>
   <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3672,31 +3738,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70" xsi:nil="true"/>
-    <_activity xmlns="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D36DC9295A43C144A47697F8D3FAA5AB" ma:contentTypeVersion="18" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a46b3260b7f9781e899744d450f65f4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9380b54f-bfbf-4b36-b390-8596c83a22d7" xmlns:ns4="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0cbccb8220b77c50a275020d8e35e0f4" ns3:_="" ns4:_="">
     <xsd:import namespace="9380b54f-bfbf-4b36-b390-8596c83a22d7"/>
@@ -3949,10 +3997,39 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70" xsi:nil="true"/>
+    <_activity xmlns="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92017F1-FD6A-401F-A108-89205144B4CB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CBF04-3668-45ED-9E30-FF0B098E3B31}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9380b54f-bfbf-4b36-b390-8596c83a22d7"/>
+    <ds:schemaRef ds:uri="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3975,20 +4052,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56CBF04-3668-45ED-9E30-FF0B098E3B31}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C92017F1-FD6A-401F-A108-89205144B4CB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9380b54f-bfbf-4b36-b390-8596c83a22d7"/>
-    <ds:schemaRef ds:uri="1c9f6fb7-ae94-4e5f-8f79-4d67e6373a70"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
